--- a/biology/Botanique/Alhambra_(Grenade)/Alhambra_(Grenade).xlsx
+++ b/biology/Botanique/Alhambra_(Grenade)/Alhambra_(Grenade).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alhambra (de l'arabe Al-Hamrâ - الحَمْراء) de Grenade en Andalousie est un ensemble palatial constituant l'un des monuments majeurs de l'architecture arabo-musulmane. Acropole médiévale la plus majestueuse du monde méditerranéen, située sur le plateau de la Sabika qui domine la ville, elle se compose essentiellement de quatre parties incluses dans son enceinte fortifiée : l'Alcazaba, les palais nasrides, le Généralife, ses jardins, et le palais de Charles Quint.
@@ -513,10 +525,12 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un ensemble fortifié situé sur la colline de la Sabika, qui domine la plaine et la ville de Grenade, et qui fait face au quartier populaire et pittoresque de l'Albaicín. On y aperçoit au loin les sommets enneigés de la Sierra Nevada. Parmi ces bâtiments se trouvent notamment le palais mauresque qui fait la gloire de l'Alhambra ainsi que le palais de style renaissance de Charles Quint et une église édifiée à la place d'une mosquée.
-Le nom vient de l'arabe الْقَلْعَةُ ٱلْحَمْرَاءُ, ʾal-Qalʻatu al-Ḥamrāʼ(u), c'est-à-dire « le château rouge ». Il peut s'agir d'une référence à Mohammed ben Nazar, dit الأحمر, ʾal-aḥmar (« le rouge », à cause de sa barbe rousse), le fondateur de la dynastie des Nasrides, qui entra à Grenade en 1238 et fonda le site[1],[2], mais le toponyme semble plus ancien[3]. Son fils Mohammed II le fortifia. Le style nasride atteint son apogée au XIVe siècle sous les rois Youssouf Ier et Mohammed V al-Ghanî, qui font édifier les parties les plus prestigieuses entre 1333 et 1354. Chaque souverain reprenait le palais de son prédécesseur et en édifiait de nouvelles parties, le modifiant à sa guise : on parle donc de palais nasrides, au pluriel, pour cet ensemble.
+Le nom vient de l'arabe الْقَلْعَةُ ٱلْحَمْرَاءُ, ʾal-Qalʻatu al-Ḥamrāʼ(u), c'est-à-dire « le château rouge ». Il peut s'agir d'une référence à Mohammed ben Nazar, dit الأحمر, ʾal-aḥmar (« le rouge », à cause de sa barbe rousse), le fondateur de la dynastie des Nasrides, qui entra à Grenade en 1238 et fonda le site mais le toponyme semble plus ancien. Son fils Mohammed II le fortifia. Le style nasride atteint son apogée au XIVe siècle sous les rois Youssouf Ier et Mohammed V al-Ghanî, qui font édifier les parties les plus prestigieuses entre 1333 et 1354. Chaque souverain reprenait le palais de son prédécesseur et en édifiait de nouvelles parties, le modifiant à sa guise : on parle donc de palais nasrides, au pluriel, pour cet ensemble.
 Alors que presque partout dans le monde musulman les palais anciens ont disparu ou ne sont plus que des ruines, l’Alhambra possède encore deux groupes de palais du XIVe siècle. Les demeures bâties par les premiers souverains de la dynastie ont disparu et, au XVe siècle, les rois de Grenade n’ont pas eu les ressources nécessaires pour remplacer les palais subsistant aujourd’hui.
 </t>
         </is>
@@ -548,16 +562,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'Alcazaba
-Son nom provient de l'arabe « Al Casbah » qui signifie une forteresse ou une citadelle.
+          <t>L'Alcazaba</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom provient de l'arabe « Al Casbah » qui signifie une forteresse ou une citadelle.
 C'est la citadelle primitive hébergeant les hommes de guerre, semblable à un alcazar, édifiée sur le fronton ouest de la colline de l'Alhambra. Elle bénéficie d'une hauteur stratégiquement imparable : du haut de la plus haute tour, on peut observer toute la plaine de Grenade, la « Vega granadina ». Son architecture est destinée à la protection de forteresse en temps de siège. Disposant d'une médina intérieure, distincte de celle de l'enceinte de l'Alhambra, elle correspond au donjon intérieur d'un château fort, en termes d'architecture médiévale. La forteresse disposait également de hammams, qui sont aujourd'hui en restauration.
 Durant la Reconquista au XVe siècle, les princes Nazari observaient du haut de la tour de l'Alcazaba les mouvements de troupes militaires dans la plaine de Grenade. Symboliquement, les Rois Catholiques, leurs adversaires, avaient installé à Santa Fe un camp fortifié militaire en pleine terre ennemie, pour affirmer leur prégnance sur le terrain.
 			Vue générale de l'Alcazaba.
 			Vue rapprochée des tours de l'Alcazaba.
 			L'Alcazaba abritant autrefois les soldats est aujourd'hui en ruines.
 			Détail des hammams intérieurs à la citadelle, en cours de restauration.
-Les palais nasrides
-Le plan d'ensemble des Palais nasrides s'organise en de multiples salles rectangulaires, partiellement intégrées à l'enceinte reliées entre elles par des vestibules et réparties en trois ensembles : Mexuar, Palais de Comares (Palacio de Comares) et Palais des Lions (Palacio de los leones).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les palais nasrides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plan d'ensemble des Palais nasrides s'organise en de multiples salles rectangulaires, partiellement intégrées à l'enceinte reliées entre elles par des vestibules et réparties en trois ensembles : Mexuar, Palais de Comares (Palacio de Comares) et Palais des Lions (Palacio de los leones).
 L'ensemble est disposé autour des deux joyaux de l'Alhambra de Grenade :
 La Cour des Myrtes (Patio de los Arrayanes), au pied de la Tour de Comares et du Salon des Ambassadeurs.
 La Cour des Lions (Patio de los Leones).
@@ -567,17 +621,122 @@
 			Les stucs et arabesques de l'art nasride.
 			Façade en stuc jauni.
 			Cour des lions, Alhambra, par Juan Laurent, 1871, Department of Image Collections, National Gallery of Art Library, Washington, D.C.
-Les Jardins du Partal
-Ces jardins sont situés dans l'enceinte de l'Alhambra, ils ont les vues les plus précieuses et les plus raffinées sur le quartier de l'Albaicín. Les jardins sont en étages successifs, séparés d'escaliers et de pergolas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Jardins du Partal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces jardins sont situés dans l'enceinte de l'Alhambra, ils ont les vues les plus précieuses et les plus raffinées sur le quartier de l'Albaicín. Les jardins sont en étages successifs, séparés d'escaliers et de pergolas.
 Ils sont accessibles en sortie des palais Nazaris. On peut également les visiter sans passer par les palais, en passant à droite des murs du palais de Charles Quint, par un chemin s'opposant à son entrée principale. La vue sur l'Albaicin avec en avant plan le bassin réfléchissant le portique des Dames et ses colonnades, ainsi que les palmiers le bordant, est d'une pureté passée.
 La Tour des Dames (Torre de las Damas) constitue l'une des plus célèbres parties des Jardins du Partal. Son portique de colonnades se réfléchissant sur un bassin, expressément placé pour la vue, est particulièrement photogénique.
 On pourra voir dans les jardins les restes de plusieurs palais, car cette zone fut habitée par la noblesse musulmane. Le plus important d’eux fut le Palais de Yusuf III, qui ressemblait au Palais de Comares (Palacio de Comares). Il fut détruit au XVIIIe siècle, mais selon les récits il s’agissait du plus beau des palais de l’Alhambra.
 Yusuf Ier venait prendre ombrage dans le Palais-terrasse de Yusuf alors que le Généralife était en construction sur l'autre versant de la colline de la Sabika.
-Le Généralife
-C'était le palais d'été des princes Nasrides. Ils venaient s'y rafraîchir dans les ombrages, près des bassins d'eau. Le Généralife est situé hors des murs d'enceinte, sur l'autre versant du plateau principal. Ce palais est très connu en Espagne et plusieurs poèmes ont été écrits sur ce sujet. Le nom est un dérivé de l'arabe « Jannat al-Arif » signifiant « paradis » ou « jardins de l'architecte ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Généralife</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'était le palais d'été des princes Nasrides. Ils venaient s'y rafraîchir dans les ombrages, près des bassins d'eau. Le Généralife est situé hors des murs d'enceinte, sur l'autre versant du plateau principal. Ce palais est très connu en Espagne et plusieurs poèmes ont été écrits sur ce sujet. Le nom est un dérivé de l'arabe « Jannat al-Arif » signifiant « paradis » ou « jardins de l'architecte ».
 La disponibilité de l'eau caractérise cette Andalousie dominée par les sommets enneigés de la Sierra Nevada : l'Alhambra et les jardins du Généralife sont les symboles les plus forts de cette domestication de l'eau qui rafraîchissait chaque cour et jardin.
-Le palais de Charles Quint
-Le palais de Charles Quint est un ajout des vainqueurs castillans postérieur à l'édification des palais mauresques sur la colline de la Sabika. Il est adossé aux palais nasrides - à tel point qu'une série de travaux en cours consiste à désolidariser un escalier monumental qui partage ses dalles avec les parois du palais de Comares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le palais de Charles Quint</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palais de Charles Quint est un ajout des vainqueurs castillans postérieur à l'édification des palais mauresques sur la colline de la Sabika. Il est adossé aux palais nasrides - à tel point qu'une série de travaux en cours consiste à désolidariser un escalier monumental qui partage ses dalles avec les parois du palais de Comares.
 Sa fonction symbolique est directement de signifier la mainmise du pouvoir de l'Empereur sur ces terres conquises lors de la génération des rois catholiques qui l'ont précédé.
 C'est un bâtiment de style renaissance situé sur la colline de l'Alhambra. Il s'agit d'une commande de l'Empereur qui voulait y établir sa résidence grenadine. Déjà les rois catholiques y avaient réalisé quelques salles, mais les intentions de Charles Quint était d'y avoir une résidence permanente à la mesure de son rang.
 Le projet fut délégué à Pedro Machuca, dans une Espagne où le style dominant était le plateresque, et qui ne s'était pas encore complètement libérée de l'art gothique, Machuca construisit un palais que l'on peut qualifier de maniériste, un style qui faisait alors son apparition en Italie.
@@ -585,51 +744,196 @@
 Le bâtiment est situé au cœur de l'Alhambra nazare, à l'extrémité du patio de los Arrayanes, et lors de sa construction, on a dû déplacer un pavillon opposé à la tour de Comares. Ce détail, objet de critique et de polémique, doit être replacé dans le contexte de l'époque. Le palais de Charles Quint ne signifie pas tant la destruction d'une partie de l'Alhambra que la garantie de la survie du reste. En des temps où la pratique courante était la destruction totale des temples et palais des peuples conquis, la sensibilité des rois chrétiens face à la beauté incontestable de l'Alhambra imposa la nécessité de la conserver.
 Cette œuvre n'a rien à voir avec les autres œuvres espagnoles de l'époque, la plupart fondées sur des conceptions locales. Son influence fut limitée parce qu'incomprise : il fallut attendre longtemps jusqu'à ce que Jean-Baptiste de Tolède et Jean de Herral maîtrisent aussi bien le style classique lors de la réalisation du monastère de l'Escurial.
 Mise en chantier par Pedro Machuca en 1527, la construction de l'ostentatoire palais neuf fut laborieuse. La construction des cours dites de Lindaraja et de la Grille résulte de ces travaux, achevés en 1537.
-La Médina
-La Médina est la première zone accessible une fois passé le pont-levis arrière. Elle correspond à une zone habitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La Médina</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Médina est la première zone accessible une fois passé le pont-levis arrière. Elle correspond à une zone habitée.
 L'Alhambra, outre la vie palatine des princes, était une véritable cité sur la colline, peuplée par les fidèles des Nasrides, à l'écart des tumultes de la ville basse.
 La médina était le lieu de vie pour tous ces gens. Il ne reste aujourd'hui que les fondations des maisons.
-Les tours d'enceinte
-À l'époque de sa splendeur, l'Alhambra alignait trente tours de défense. Lors de la prise du monument par les troupes françaises de Napoléon Ier, les tours les plus stratégiques furent détruites pour rendre l'ensemble inoffensif. Napoléon entreprit également la réfection d'autres zones de l'Alhambra, information aujourd'hui sujette à caution par l'historiographie espagnole.
-Quelques tours connues
-bâties sous le règne de Yusuf Ier de Grenade :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les tours d'enceinte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'époque de sa splendeur, l'Alhambra alignait trente tours de défense. Lors de la prise du monument par les troupes françaises de Napoléon Ier, les tours les plus stratégiques furent détruites pour rendre l'ensemble inoffensif. Napoléon entreprit également la réfection d'autres zones de l'Alhambra, information aujourd'hui sujette à caution par l'historiographie espagnole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les tours d'enceinte</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Quelques tours connues</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>bâties sous le règne de Yusuf Ier de Grenade :
 Tour de la Captive : une princesse arabe tombée amoureuse d'un chevalier chrétien aurait été enfermée dans cette tour, qui en aurait pris son nom.
 Tour du Cadi
 Tour de Comares
 Tour de Machuca
 tour du Boudoir de la Reine : torre del Peinador de la Reina
 bâties sous le règne de Mohammed VII de Grenade (1392-1408) :
-tour des Infantes
-Palais perdus, ou en cours de restauration
-Ces ruines sont décrites dans l'article annexe plateau de la Sabika.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alhambra_(Grenade)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+tour des Infantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs de l'Alhambra</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Palais perdus, ou en cours de restauration</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ces ruines sont décrites dans l'article annexe plateau de la Sabika.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Après le règne des Nasrides de l'ombre, malgré le désir des Rois Catholiques d'effacer les traces de l'Islam des territoires entièrement reconquis par les chrétiens après la chute de Grenade en 1492, le palais mauresque était tellement superbe qu'il fut épargné et servit de résidence royale lorsque la cour passait à Grenade. Les souverains y proclament le Décret de l'Alhambra.
 L'ensemble tomba ensuite en désuétude, ne faisant l'objet de restaurations qu'à l'occasion de séjours royaux.
@@ -647,34 +951,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alhambra_(Grenade)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>L'Alhambra dans les arts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature
-Le poète français Victor Hugo, dans l'Orientale XXXI du Livre III, datées des 3-5 avril 1828, en donne la description suivante :
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poète français Victor Hugo, dans l'Orientale XXXI du Livre III, datées des 3-5 avril 1828, en donne la description suivante :
 L'Alhambra ! l'Alhambra ! Palais que les génies
 Ont doré comme un rêve et rempli d'harmonies.
 Forteresse aux créneaux festonnés et croulants
@@ -682,8 +991,43 @@
 Quand la lune, à travers les mille arceaux arabes,
 Sème les murs de trèfles blancs.
 — Victor Hugo, Extrait des « Orientales » XXXI (Grenade) du Livre III
-Musique
-L'Alhambra a été la source d'inspiration de Francisco Tàrrega quand il a composé Recuerdos de la Alhambra en 1896, morceau qui est considéré comme une des œuvres majeures du romantisme espagnol en guitare classique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>L'Alhambra dans les arts</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'Alhambra a été la source d'inspiration de Francisco Tàrrega quand il a composé Recuerdos de la Alhambra en 1896, morceau qui est considéré comme une des œuvres majeures du romantisme espagnol en guitare classique.
 Œuvres musicales :
 Nuits dans les jardins d'Espagne : œuvre pour piano et orchestre de Manuel de Falla (achevée en 1915). Le premier mouvement, En el Generalife, décrit les jardins du Généralife, palais d'été des princes nasrides.
 Recuerdos de la Alhambra : célèbre trémolo pour guitare de Francisco Tárrega.
@@ -691,9 +1035,43 @@
 Lindaraja : pièce pour 2 pianos (1901) de Claude Debussy.
 El Albaicin : Iberia (3e cahier), pour piano, d'Isaac Albéniz.
 Nights from the Alhambra (2006) de Loreena McKennitt.
-L'Alhambra : disque de Damien Saez (2008).
-Jeux-vidéo
-L'Alhambra peut être construite comme merveille mondiale dans plusieurs opus de la franchise Sid Meier's Civilization (Civilization V &amp; Civilization VI).</t>
+L'Alhambra : disque de Damien Saez (2008).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alhambra_(Grenade)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>L'Alhambra dans les arts</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jeux-vidéo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L'Alhambra peut être construite comme merveille mondiale dans plusieurs opus de la franchise Sid Meier's Civilization (Civilization V &amp; Civilization VI).</t>
         </is>
       </c>
     </row>
